--- a/static/Holding_Breakup/SAREGAMA.xlsx
+++ b/static/Holding_Breakup/SAREGAMA.xlsx
@@ -34,16 +34,16 @@
     <t>Number of Institutions Holding Shares</t>
   </si>
   <si>
-    <t>65.89%</t>
-  </si>
-  <si>
-    <t>11.98%</t>
-  </si>
-  <si>
-    <t>35.13%</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>66.01%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>37.60%</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
